--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="97">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -147,6 +147,165 @@
   </si>
   <si>
     <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXT ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPOGRAPHY NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIGNMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;d&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buttonDown按下</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SongTi_Large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STSONG.TTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20个</t>
+  </si>
+  <si>
+    <t xml:space="preserve">减</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;v&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;number&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zh&lt;number&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">值：&lt;number&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;numbe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v&lt;number&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V:&lt;number&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V: &lt;number&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V: &lt;d&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V: &lt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V: &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">000</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1544,9 @@
       </c>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4"/>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
       <c r="I4"/>
       <c r="K4" s="5" t="s">
         <v>17</v>
@@ -1418,7 +1579,9 @@
       </c>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5"/>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
       <c r="I5"/>
       <c r="K5" s="8" t="s">
         <v>1</v>
@@ -1449,7 +1612,9 @@
       </c>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6"/>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
       <c r="I6"/>
       <c r="K6" s="8" t="s">
         <v>2</v>
@@ -1466,6 +1631,26 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7"/>
       <c r="K7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1596,36 +1781,107 @@
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
+      <c r="F3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1"/>
-    <row r="5" spans="2:10" ht="15" customHeight="1"/>
-    <row r="6" spans="2:10"/>
-    <row r="7" spans="2:10"/>
-    <row r="8" spans="2:10"/>
+    <row r="4" spans="2:10" ht="15" customHeight="1">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1">
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="9" spans="2:10"/>
     <row r="10" spans="2:10"/>
     <row r="13" spans="2:10"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3896" uniqueCount="101">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -306,6 +306,18 @@
   </si>
   <si>
     <t xml:space="preserve">000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are you sure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">are you sure ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dialogMsg</t>
   </si>
 </sst>
 </file>
@@ -1833,16 +1845,16 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3896" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4090" uniqueCount="101">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="5" spans="2:15">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -1589,8 +1589,12 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
       <c r="H5" t="s">
         <v>76</v>
       </c>
@@ -1610,23 +1614,6 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6" t="s">
-        <v>76</v>
-      </c>
       <c r="I6"/>
       <c r="K6" s="8" t="s">
         <v>2</v>
@@ -1643,25 +1630,6 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7" t="s">
-        <v>76</v>
-      </c>
       <c r="I7"/>
       <c r="K7" s="8" t="s">
         <v>15</v>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4090" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="104">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -318,6 +318,15 @@
   </si>
   <si>
     <t xml:space="preserve">dialogMsg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_</t>
   </si>
 </sst>
 </file>
@@ -1862,8 +1871,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:10"/>
-    <row r="10" spans="2:10"/>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="13" spans="2:10"/>
     <row r="14" spans="2:10"/>
     <row r="15" spans="2:10"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="110">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -327,6 +327,47 @@
   </si>
   <si>
     <t xml:space="preserve">_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResourceId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Lorem ipsum dolor sit amet, consectetur adipiscing elit. 
+Donecplacerat iaculis augue, sit amet porta libero elementum
+vel. Vestibulum consequat placerat tellus, in tristique sapien
+pulvinar sit amet. Curabitur lorem nunc, eleifend eget viverra sed,
+tempus malesuada velit. Nullam id nisl nibh. 
+Praesent in quam dolor. Phasellus ut accumsan nunc. Mauris tempor
+mi non risus semper sagittis in ac metus. 
+Morbi nisl eros, condimentum id lobortis et, fermentum id massa. 
+Suspendisse potenti. Phasellus venenatis interdum
+turpis a molestie. Maecenas dignissim consequat diam ut
+pretium. Praesent leo elit, dignissim in tristique non, suscipit vitae
+velit. Nunc vitae risus dui, a porta velit. Curabitur et odio tellus,
+a pretium erat.Suspendisse in fringilla neque.
+Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec
+placerat iaculis augue, sit amet porta libero elementum
+vel. Vestibulum consequat placerat tellus, in tristique sapien
+pulvinar sit amet. Curabitur lorem nunc, eleifend eget viverra sed,
+tempus malesuada velit. Nullam id nisl nibh.
+Morbi nisl eros, condimentum id lobortis et, fermentum id massa. 
+Suspendisse potenti. Phasellus venenatis interdum
+turpis a molestie. Maecenas dignissim consequat diam ut
+pretium. Praesent leo elit, dignissim in tristique non, suscipit vitae
+velit. Nunc vitae risus dui, a porta velit. Curabitur et odio tellus,
+a pretium erat.Suspendisse in fringilla neque. "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SongTi_Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1623,6 +1664,25 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="2:15">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
       <c r="I6"/>
       <c r="K6" s="8" t="s">
         <v>2</v>
@@ -1902,6 +1962,40 @@
         <v>103</v>
       </c>
       <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
         <v>50</v>
       </c>
     </row>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21616" uniqueCount="223">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -368,6 +368,345 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;KeyValues&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k</t>
   </si>
 </sst>
 </file>
@@ -1999,44 +2338,652 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:10"/>
-    <row r="14" spans="2:10"/>
-    <row r="15" spans="2:10"/>
-    <row r="16" spans="2:10"/>
-    <row r="17" spans="4:4"/>
-    <row r="18" spans="4:4"/>
-    <row r="19" spans="4:4"/>
-    <row r="20" spans="4:4"/>
-    <row r="21" spans="4:4"/>
-    <row r="22" spans="4:4"/>
-    <row r="23" spans="4:4"/>
-    <row r="24" spans="4:4"/>
-    <row r="25" spans="4:4"/>
-    <row r="26" spans="4:4"/>
-    <row r="27" spans="4:4"/>
-    <row r="28" spans="4:4"/>
-    <row r="29" spans="4:4"/>
-    <row r="30" spans="4:4"/>
-    <row r="31" spans="4:4"/>
-    <row r="32" spans="4:4"/>
-    <row r="33" spans="4:4"/>
-    <row r="34" spans="4:4"/>
-    <row r="35" spans="4:4"/>
-    <row r="36" spans="4:4"/>
-    <row r="37" spans="4:4"/>
-    <row r="38" spans="4:4"/>
-    <row r="39" spans="4:4"/>
-    <row r="40" spans="4:4"/>
-    <row r="41" spans="4:4"/>
-    <row r="42" spans="4:4"/>
-    <row r="43" spans="4:4"/>
-    <row r="44" spans="4:4"/>
-    <row r="45" spans="4:4"/>
-    <row r="46" spans="4:4"/>
-    <row r="47" spans="4:4"/>
-    <row r="48" spans="4:4"/>
-    <row r="49" spans="4:4"/>
-    <row r="50" spans="4:4"/>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="B18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="B22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="B23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="B25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="B26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="B27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="B28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="B29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="B30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="B31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="B32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="B33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="B34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="B35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="B36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="B37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="B38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="B39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="B41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="B42" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="B43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="B44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="B45" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="B46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="B47" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>176</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="B48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="B49" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="B50" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="51" spans="4:4"/>
     <row r="52" spans="4:4"/>
     <row r="53" spans="4:4"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21616" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29578" uniqueCount="265">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -707,6 +707,132 @@
   </si>
   <si>
     <t xml:space="preserve">k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcde</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2469,7 @@
         <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>62</v>
@@ -2357,16 +2483,16 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
         <v>50</v>
@@ -2374,16 +2500,16 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="F15" t="s">
         <v>50</v>
@@ -2391,16 +2517,16 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
         <v>50</v>
@@ -2408,16 +2534,16 @@
     </row>
     <row r="17" spans="4:4">
       <c r="B17" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
         <v>50</v>
@@ -2425,16 +2551,16 @@
     </row>
     <row r="18" spans="4:4">
       <c r="B18" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="F18" t="s">
         <v>50</v>
@@ -2442,16 +2568,16 @@
     </row>
     <row r="19" spans="4:4">
       <c r="B19" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
         <v>50</v>
@@ -2459,16 +2585,16 @@
     </row>
     <row r="20" spans="4:4">
       <c r="B20" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="F20" t="s">
         <v>50</v>
@@ -2476,16 +2602,16 @@
     </row>
     <row r="21" spans="4:4">
       <c r="B21" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="F21" t="s">
         <v>50</v>
@@ -2493,16 +2619,16 @@
     </row>
     <row r="22" spans="4:4">
       <c r="B22" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="F22" t="s">
         <v>50</v>
@@ -2510,16 +2636,16 @@
     </row>
     <row r="23" spans="4:4">
       <c r="B23" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="C23" t="s">
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="F23" t="s">
         <v>50</v>
@@ -2527,16 +2653,16 @@
     </row>
     <row r="24" spans="4:4">
       <c r="B24" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F24" t="s">
         <v>50</v>
@@ -2544,16 +2670,16 @@
     </row>
     <row r="25" spans="4:4">
       <c r="B25" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
         <v>50</v>
@@ -2561,16 +2687,16 @@
     </row>
     <row r="26" spans="4:4">
       <c r="B26" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="F26" t="s">
         <v>50</v>
@@ -2578,16 +2704,16 @@
     </row>
     <row r="27" spans="4:4">
       <c r="B27" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F27" t="s">
         <v>50</v>
@@ -2595,16 +2721,16 @@
     </row>
     <row r="28" spans="4:4">
       <c r="B28" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
         <v>50</v>
@@ -2612,16 +2738,16 @@
     </row>
     <row r="29" spans="4:4">
       <c r="B29" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
         <v>50</v>
@@ -2629,16 +2755,16 @@
     </row>
     <row r="30" spans="4:4">
       <c r="B30" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F30" t="s">
         <v>50</v>
@@ -2646,16 +2772,16 @@
     </row>
     <row r="31" spans="4:4">
       <c r="B31" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F31" t="s">
         <v>50</v>
@@ -2663,16 +2789,16 @@
     </row>
     <row r="32" spans="4:4">
       <c r="B32" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F32" t="s">
         <v>50</v>
@@ -2680,16 +2806,16 @@
     </row>
     <row r="33" spans="4:4">
       <c r="B33" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="F33" t="s">
         <v>50</v>
@@ -2697,16 +2823,16 @@
     </row>
     <row r="34" spans="4:4">
       <c r="B34" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="C34" t="s">
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="F34" t="s">
         <v>50</v>
@@ -2714,16 +2840,16 @@
     </row>
     <row r="35" spans="4:4">
       <c r="B35" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="F35" t="s">
         <v>50</v>
@@ -2731,16 +2857,16 @@
     </row>
     <row r="36" spans="4:4">
       <c r="B36" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F36" t="s">
         <v>50</v>
@@ -2748,16 +2874,16 @@
     </row>
     <row r="37" spans="4:4">
       <c r="B37" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F37" t="s">
         <v>50</v>
@@ -2765,16 +2891,16 @@
     </row>
     <row r="38" spans="4:4">
       <c r="B38" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F38" t="s">
         <v>50</v>
@@ -2782,16 +2908,16 @@
     </row>
     <row r="39" spans="4:4">
       <c r="B39" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="F39" t="s">
         <v>50</v>
@@ -2799,16 +2925,16 @@
     </row>
     <row r="40" spans="4:4">
       <c r="B40" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F40" t="s">
         <v>50</v>
@@ -2816,16 +2942,16 @@
     </row>
     <row r="41" spans="4:4">
       <c r="B41" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C41" t="s">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="F41" t="s">
         <v>50</v>
@@ -2833,16 +2959,16 @@
     </row>
     <row r="42" spans="4:4">
       <c r="B42" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="C42" t="s">
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="F42" t="s">
         <v>50</v>
@@ -2850,16 +2976,16 @@
     </row>
     <row r="43" spans="4:4">
       <c r="B43" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="C43" t="s">
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F43" t="s">
         <v>50</v>
@@ -2867,16 +2993,16 @@
     </row>
     <row r="44" spans="4:4">
       <c r="B44" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="C44" t="s">
         <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="F44" t="s">
         <v>50</v>
@@ -2884,16 +3010,16 @@
     </row>
     <row r="45" spans="4:4">
       <c r="B45" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="C45" t="s">
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F45" t="s">
         <v>50</v>
@@ -2901,16 +3027,16 @@
     </row>
     <row r="46" spans="4:4">
       <c r="B46" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="C46" t="s">
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F46" t="s">
         <v>50</v>
@@ -2918,16 +3044,16 @@
     </row>
     <row r="47" spans="4:4">
       <c r="B47" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="C47" t="s">
         <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="F47" t="s">
         <v>50</v>
@@ -2935,16 +3061,16 @@
     </row>
     <row r="48" spans="4:4">
       <c r="B48" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="C48" t="s">
         <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F48" t="s">
         <v>50</v>
@@ -2952,16 +3078,16 @@
     </row>
     <row r="49" spans="4:4">
       <c r="B49" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="C49" t="s">
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="F49" t="s">
         <v>50</v>
@@ -2969,7 +3095,7 @@
     </row>
     <row r="50" spans="4:4">
       <c r="B50" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="C50" t="s">
         <v>108</v>
@@ -2978,7 +3104,7 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="F50" t="s">
         <v>50</v>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29578" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33537" uniqueCount="271">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -833,6 +833,24 @@
   </si>
   <si>
     <t xml:space="preserve">abcde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,a-z,A-Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicl me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click me</t>
   </si>
 </sst>
 </file>
@@ -2111,7 +2129,7 @@
         <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="I5"/>
       <c r="K5" s="8" t="s">
@@ -3110,8 +3128,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="4:4"/>
-    <row r="52" spans="4:4"/>
+    <row r="51" spans="4:4">
+      <c r="B51" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="B52" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>270</v>
+      </c>
+      <c r="F52" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="53" spans="4:4"/>
     <row r="54" spans="4:4"/>
     <row r="55" spans="4:4"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33537" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36025" uniqueCount="274">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -851,6 +851,15 @@
   </si>
   <si>
     <t xml:space="preserve">Click me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,a-z,A-Z,19968-40869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-`~!@#$%^&amp;*()_-+=,./;'[]\&lt;&gt;?:"{}|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,a-z,A-Z,</t>
   </si>
 </sst>
 </file>
